--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_22_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_22_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16395.14111069085</v>
+        <v>3262633.081027479</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16395.14111069085</v>
+        <v>3262633.081027479</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50692.72486388661</v>
+        <v>3126435.447611203</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50692.72486388661</v>
+        <v>3126435.447611203</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1343461730.46652</v>
+        <v>53139817.20126574</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13840.57000050997</v>
+        <v>1363957.232413111</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25731.62238112423</v>
+        <v>2400089.298998827</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37637.85605335138</v>
+        <v>3436221.365584545</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50220.60805621425</v>
+        <v>4470999.034933118</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>62803.36005907707</v>
+        <v>5505776.704281691</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75385.79082414666</v>
+        <v>6540529.700313436</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>87968.34557573295</v>
+        <v>7575307.369662002</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100550.9003273193</v>
+        <v>8610085.039010568</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>113190.2562880916</v>
+        <v>9627778.049344176</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>125850.3949290138</v>
+        <v>10649606.81302763</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>138510.533569936</v>
+        <v>11671435.57671109</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>151170.6722108583</v>
+        <v>12693264.34039455</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>163830.8108517805</v>
+        <v>13715093.10407801</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>176494.207307716</v>
+        <v>14736914.54547007</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>189157.6037636514</v>
+        <v>15758735.98686213</v>
       </c>
     </row>
   </sheetData>
